--- a/10_Testing/TestReport.xlsx
+++ b/10_Testing/TestReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Schule\SYP\Release0512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Schule\SYP\Release2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -378,6 +378,9 @@
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -496,6 +499,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,6 +622,9 @@
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -635,11 +644,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="100"/>
-        <c:axId val="229125720"/>
-        <c:axId val="228909056"/>
+        <c:axId val="225034408"/>
+        <c:axId val="225034800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229125720"/>
+        <c:axId val="225034408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +682,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228909056"/>
+        <c:crossAx val="225034800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -681,7 +690,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228909056"/>
+        <c:axId val="225034800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +733,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229125720"/>
+        <c:crossAx val="225034408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1941,7 +1950,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2012,13 +2021,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="5">
+        <v>41661</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E22" si="0">SUM(B5:D5)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">

--- a/10_Testing/TestReport.xlsx
+++ b/10_Testing/TestReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Schule\SYP\Release0512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Schule\SYP\Release170418\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Dec 05, 2017</t>
+  </si>
+  <si>
+    <t>Apr 17, 2018</t>
   </si>
 </sst>
 </file>
@@ -378,6 +381,12 @@
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -496,6 +505,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,6 +631,12 @@
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -635,11 +656,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="100"/>
-        <c:axId val="229125720"/>
-        <c:axId val="228909056"/>
+        <c:axId val="225034408"/>
+        <c:axId val="225034800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229125720"/>
+        <c:axId val="225034408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +694,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228909056"/>
+        <c:crossAx val="225034800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -681,7 +702,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228909056"/>
+        <c:axId val="225034800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +745,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229125720"/>
+        <c:crossAx val="225034408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1941,7 +1962,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2012,23 +2033,39 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="5">
+        <v>41661</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E22" si="0">SUM(B5:D5)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
